--- a/documentos gerais/Backlog SP2.xlsx
+++ b/documentos gerais/Backlog SP2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\again\OneDrive\Documentos\faculdade\2ºSemestre\Health Touch\Health-Touch\documentos gerais\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9EB7221D-B2D6-4B95-AB77-402FE75264FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{346A61A5-235A-4864-AAFB-E124A6C2CE70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{36E152D4-FEE4-4FCC-B730-180CEB102635}"/>
+    <workbookView xWindow="9510" yWindow="0" windowWidth="9780" windowHeight="10890" xr2:uid="{36E152D4-FEE4-4FCC-B730-180CEB102635}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -382,13 +382,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -768,8 +768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{909E15C2-075C-4152-ACA7-7AC18D7699B1}">
   <dimension ref="B2:I51"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="71" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -777,62 +777,62 @@
     <col min="2" max="2" width="4.90625" customWidth="1"/>
     <col min="3" max="3" width="38.54296875" customWidth="1"/>
     <col min="4" max="4" width="38.1796875" customWidth="1"/>
-    <col min="5" max="5" width="11.26953125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" customWidth="1"/>
     <col min="6" max="6" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.6328125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.6328125" customWidth="1"/>
-    <col min="9" max="9" width="18.36328125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.26953125" customWidth="1"/>
+    <col min="8" max="8" width="19.81640625" customWidth="1"/>
+    <col min="9" max="9" width="25.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
-      <c r="H2" s="4"/>
-      <c r="I2" s="4"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.35">
-      <c r="B3" s="5"/>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="5"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
     </row>
     <row r="4" spans="2:9" ht="44" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="4" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:9" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -855,7 +855,7 @@
         <v>57</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="2:9" ht="43.5" x14ac:dyDescent="0.35">
@@ -884,7 +884,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="2:9" ht="29" x14ac:dyDescent="0.35">
+    <row r="7" spans="2:9" ht="39.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -1155,7 +1155,7 @@
         <v>34</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>53</v>
